--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 2 (34, 0, 26, 12, 41)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(34, 0, 26, 12, 41)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8464685760679314</v>
+        <v>0.8469462330186518</v>
       </c>
       <c r="E2">
-        <v>0.8464685760679314</v>
+        <v>0.8469462330186518</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.749095270933257E-06</v>
+        <v>2.737654710891644E-06</v>
       </c>
       <c r="E3">
-        <v>2.749095270933257E-06</v>
+        <v>2.737654710891644E-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.002309338631656055</v>
+        <v>0.002307396152455066</v>
       </c>
       <c r="E4">
-        <v>0.002309338631656055</v>
+        <v>0.002307396152455066</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.00047247675975034</v>
+        <v>0.0004722175605528189</v>
       </c>
       <c r="E5">
-        <v>0.00047247675975034</v>
+        <v>0.0004722175605528189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8636367098605807</v>
+        <v>0.863860727118141</v>
       </c>
       <c r="E6">
-        <v>0.8636367098605807</v>
+        <v>0.863860727118141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9903784001600707</v>
+        <v>2.281701924783946E-06</v>
       </c>
       <c r="E7">
-        <v>0.009621599839929273</v>
+        <v>0.9999977182980753</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9885330738021951</v>
+        <v>0.978147963702534</v>
       </c>
       <c r="E8">
-        <v>0.01146692619780487</v>
+        <v>0.02185203629746602</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9907853914402061</v>
+        <v>0.9846908339042469</v>
       </c>
       <c r="E9">
-        <v>0.009214608559793946</v>
+        <v>0.01530916609575306</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9907032563841942</v>
+        <v>0.9999999999972069</v>
       </c>
       <c r="E10">
-        <v>0.009296743615805791</v>
+        <v>2.793099085351969E-12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9890345422630576</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.01096545773694235</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3919894993305206</v>
+        <v>1.690193772315979</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9360927635768213</v>
+        <v>0.9359363654338638</v>
       </c>
       <c r="E12">
-        <v>0.9360927635768213</v>
+        <v>0.9359363654338638</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.790340427532627E-08</v>
+        <v>1.791891961738539E-08</v>
       </c>
       <c r="E13">
-        <v>1.790340427532627E-08</v>
+        <v>1.791891961738539E-08</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0004535405145819544</v>
+        <v>0.0004539061076841042</v>
       </c>
       <c r="E14">
-        <v>0.0004535405145819544</v>
+        <v>0.0004539061076841042</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4.002194246557982E-05</v>
+        <v>4.003747610730699E-05</v>
       </c>
       <c r="E15">
-        <v>4.002194246557982E-05</v>
+        <v>4.003747610730699E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9176573814917923</v>
+        <v>0.9175364866847586</v>
       </c>
       <c r="E16">
-        <v>0.9176573814917923</v>
+        <v>0.9175364866847586</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9988602782963129</v>
+        <v>1.037066595485808E-07</v>
       </c>
       <c r="E17">
-        <v>0.001139721703687147</v>
+        <v>0.9999998962933404</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.998393954994013</v>
+        <v>0.9867543559950352</v>
       </c>
       <c r="E18">
-        <v>0.001606045005987045</v>
+        <v>0.01324564400496475</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9988800061903362</v>
+        <v>0.9927786964501278</v>
       </c>
       <c r="E19">
-        <v>0.001119993809663766</v>
+        <v>0.00722130354987216</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.998816326108807</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.001183673891193004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9983343926305237</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.001665607369476296</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5254403948783875</v>
+        <v>2.134605646133423</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
